--- a/Movie project data dictionary.xlsx
+++ b/Movie project data dictionary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\School\IBL (3.3)\SYS DEV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6615546-AB1D-46AD-AD06-CB764CA2E9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3772ECE-5022-4F2C-A1E2-3E38BAC96F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6BD3574D-50EC-42B3-BFCC-3F423B29D884}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="80">
   <si>
     <t>ENTITY</t>
   </si>
@@ -190,14 +190,97 @@
   </si>
   <si>
     <t>FIELD</t>
+  </si>
+  <si>
+    <t>USERS</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>PRIVILEDGES</t>
+  </si>
+  <si>
+    <t>System Admin</t>
+  </si>
+  <si>
+    <t>OBJECT</t>
+  </si>
+  <si>
+    <t>Object ID</t>
+  </si>
+  <si>
+    <t>Object Name</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>RESOLUTION</t>
+  </si>
+  <si>
+    <t>Resolution ID</t>
+  </si>
+  <si>
+    <t>Resolution</t>
+  </si>
+  <si>
+    <t>MOVIE RESOLUTION</t>
+  </si>
+  <si>
+    <t>PODUCTION COMPANIES</t>
+  </si>
+  <si>
+    <t>Company ID</t>
+  </si>
+  <si>
+    <t>Company name</t>
+  </si>
+  <si>
+    <t>MOVIE PRODUCTION</t>
+  </si>
+  <si>
+    <t>Varchar</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Boolean</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -225,8 +308,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2482433D-E08F-4994-8235-043A5ABEDA3D}">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,73 +666,166 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>6</v>
       </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>22</v>
       </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>7</v>
       </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5">
+        <v>500</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>39</v>
       </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>8</v>
       </c>
+      <c r="D7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>9</v>
       </c>
+      <c r="D8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>10</v>
       </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>11</v>
       </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>12</v>
       </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>25</v>
       </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12">
+        <v>300</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>13</v>
       </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>14</v>
       </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -658,33 +835,66 @@
       <c r="C17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -694,33 +904,69 @@
       <c r="C24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -730,38 +976,80 @@
       <c r="C31" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>5</v>
       </c>
@@ -771,28 +1059,34 @@
       <c r="C39" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>6</v>
       </c>
@@ -803,37 +1097,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>7</v>
       </c>
@@ -844,12 +1138,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>8</v>
       </c>
@@ -860,12 +1154,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>9</v>
       </c>
@@ -875,13 +1169,19 @@
       <c r="C59" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>10</v>
       </c>
@@ -891,13 +1191,19 @@
       <c r="C62" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>74</v>
+      </c>
+      <c r="E62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>11</v>
       </c>
@@ -908,12 +1214,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>12</v>
       </c>
@@ -924,29 +1230,198 @@
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>13</v>
+      </c>
+      <c r="B74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" t="s">
+        <v>75</v>
+      </c>
+      <c r="E74">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>14</v>
+      </c>
+      <c r="B83" t="s">
+        <v>62</v>
+      </c>
+      <c r="C83" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>15</v>
+      </c>
+      <c r="B87" t="s">
+        <v>60</v>
+      </c>
+      <c r="C87" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" t="s">
+        <v>75</v>
+      </c>
+      <c r="E87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>16</v>
+      </c>
+      <c r="B91" t="s">
+        <v>66</v>
+      </c>
+      <c r="C91" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>17</v>
+      </c>
+      <c r="B94" t="s">
+        <v>69</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" t="s">
+        <v>74</v>
+      </c>
+      <c r="E94">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>18</v>
+      </c>
+      <c r="B97" t="s">
+        <v>70</v>
+      </c>
+      <c r="C97" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>19</v>
+      </c>
+      <c r="B100" t="s">
+        <v>73</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" t="s">
+        <v>74</v>
+      </c>
+      <c r="E100">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Movie project data dictionary.xlsx
+++ b/Movie project data dictionary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\School\IBL (3.3)\SYS DEV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\School\IBL (3.3)\SYS DEV\movie-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3772ECE-5022-4F2C-A1E2-3E38BAC96F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7B20A5-774B-492E-84A5-518F85AEC33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6BD3574D-50EC-42B3-BFCC-3F423B29D884}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="81">
   <si>
     <t>ENTITY</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>Boolean</t>
+  </si>
+  <si>
+    <t>DateTime</t>
   </si>
 </sst>
 </file>
@@ -308,9 +311,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2482433D-E08F-4994-8235-043A5ABEDA3D}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -717,7 +721,7 @@
         <v>74</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -997,7 +1001,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>27</v>
       </c>
@@ -1008,7 +1012,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>29</v>
       </c>
@@ -1016,7 +1020,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>30</v>
       </c>
@@ -1027,7 +1031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>31</v>
       </c>
@@ -1038,7 +1042,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>32</v>
       </c>
@@ -1049,7 +1053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>5</v>
       </c>
@@ -1065,28 +1069,61 @@
       <c r="E39">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42">
+        <v>20</v>
+      </c>
+      <c r="F42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>6</v>
       </c>
@@ -1096,38 +1133,80 @@
       <c r="C45" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45">
+        <v>20</v>
+      </c>
+      <c r="F45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>7</v>
       </c>
@@ -1137,13 +1216,31 @@
       <c r="C53" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54">
+        <v>20</v>
+      </c>
+      <c r="F54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>8</v>
       </c>
@@ -1153,13 +1250,31 @@
       <c r="C56" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D56" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="F56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>74</v>
+      </c>
+      <c r="E57">
+        <v>20</v>
+      </c>
+      <c r="F57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>9</v>
       </c>
@@ -1175,13 +1290,25 @@
       <c r="E59">
         <v>20</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>10</v>
       </c>
@@ -1197,10 +1324,22 @@
       <c r="E62">
         <v>20</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>44</v>
+      </c>
+      <c r="D63" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -1213,11 +1352,26 @@
       <c r="C65" t="s">
         <v>34</v>
       </c>
+      <c r="D65" t="s">
+        <v>74</v>
+      </c>
+      <c r="E65">
+        <v>20</v>
+      </c>
+      <c r="F65" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>51</v>
       </c>
+      <c r="D66" t="s">
+        <v>74</v>
+      </c>
+      <c r="E66">
+        <v>200</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
@@ -1229,26 +1383,47 @@
       <c r="C68" t="s">
         <v>52</v>
       </c>
+      <c r="D68" t="s">
+        <v>74</v>
+      </c>
+      <c r="E68">
+        <v>10</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>53</v>
       </c>
+      <c r="D69" t="s">
+        <v>74</v>
+      </c>
+      <c r="E69">
+        <v>100</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>18</v>
       </c>
+      <c r="D70" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>20</v>
+      </c>
+      <c r="D71" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>21</v>
       </c>
+      <c r="D72" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
@@ -1274,38 +1449,80 @@
       <c r="C75" t="s">
         <v>56</v>
       </c>
+      <c r="D75" t="s">
+        <v>74</v>
+      </c>
+      <c r="E75">
+        <v>50</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>28</v>
       </c>
+      <c r="D76" t="s">
+        <v>74</v>
+      </c>
+      <c r="E76">
+        <v>30</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>27</v>
       </c>
+      <c r="D77" t="s">
+        <v>74</v>
+      </c>
+      <c r="E77">
+        <v>30</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>61</v>
       </c>
+      <c r="D78" t="s">
+        <v>74</v>
+      </c>
+      <c r="E78">
+        <v>20</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>57</v>
       </c>
+      <c r="D79" t="s">
+        <v>74</v>
+      </c>
+      <c r="E79">
+        <v>15</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
+        <v>74</v>
+      </c>
+      <c r="E80">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
+        <v>74</v>
+      </c>
+      <c r="E81">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>14</v>
       </c>
@@ -1315,13 +1532,31 @@
       <c r="C83" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>75</v>
+      </c>
+      <c r="E83">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
+        <v>74</v>
+      </c>
+      <c r="E84">
+        <v>30</v>
+      </c>
+      <c r="F84" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>15</v>
       </c>
@@ -1337,18 +1572,33 @@
       <c r="E87">
         <v>10</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>75</v>
+      </c>
+      <c r="E88">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D89" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>16</v>
       </c>
@@ -1358,13 +1608,28 @@
       <c r="C91" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D91" t="s">
+        <v>74</v>
+      </c>
+      <c r="E91">
+        <v>5</v>
+      </c>
+      <c r="F91" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D92" t="s">
+        <v>74</v>
+      </c>
+      <c r="E92">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>17</v>
       </c>
@@ -1380,13 +1645,25 @@
       <c r="E94">
         <v>20</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D95" t="s">
+        <v>74</v>
+      </c>
+      <c r="E95">
+        <v>5</v>
+      </c>
+      <c r="F95" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>18</v>
       </c>
@@ -1396,13 +1673,28 @@
       <c r="C97" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D97" t="s">
+        <v>74</v>
+      </c>
+      <c r="E97">
+        <v>10</v>
+      </c>
+      <c r="F97" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D98" t="s">
+        <v>74</v>
+      </c>
+      <c r="E98">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>19</v>
       </c>
@@ -1418,10 +1710,22 @@
       <c r="E100">
         <v>20</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>71</v>
+      </c>
+      <c r="D101" t="s">
+        <v>74</v>
+      </c>
+      <c r="E101">
+        <v>10</v>
+      </c>
+      <c r="F101" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Movie project data dictionary.xlsx
+++ b/Movie project data dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\School\IBL (3.3)\SYS DEV\movie-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7B20A5-774B-492E-84A5-518F85AEC33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D63994-9590-4F78-8B90-2DCFE639F8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6BD3574D-50EC-42B3-BFCC-3F423B29D884}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{6BD3574D-50EC-42B3-BFCC-3F423B29D884}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="124">
   <si>
     <t>ENTITY</t>
   </si>
@@ -268,13 +268,200 @@
   </si>
   <si>
     <t>DateTime</t>
+  </si>
+  <si>
+    <t>SAMPLE  DATA</t>
+  </si>
+  <si>
+    <t>ACD001</t>
+  </si>
+  <si>
+    <t>Damaged</t>
+  </si>
+  <si>
+    <t>Action, Crime , Drama</t>
+  </si>
+  <si>
+    <t>C:\Users\hp\Downloads\Movies\Damaged\poster</t>
+  </si>
+  <si>
+    <t>C:\Users\hp\Downloads\Movies\Damaged\synopsis</t>
+  </si>
+  <si>
+    <t>C:\Users\hp\Downloads\Movies\Damaged\trailer</t>
+  </si>
+  <si>
+    <t>92 min</t>
+  </si>
+  <si>
+    <t>D001</t>
+  </si>
+  <si>
+    <t>CS052</t>
+  </si>
+  <si>
+    <r>
+      <t>Samuel L Jackson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E95A5"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Vincent Cassel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E95A5"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Gianni Capaldi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>United States</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E95A5"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>United Kingdom</t>
+    </r>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>R101</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Cassel</t>
+  </si>
+  <si>
+    <t>American</t>
+  </si>
+  <si>
+    <t>C:\Users\hp\Downloads\Movies\Damaged\starPhoto</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>M013</t>
+  </si>
+  <si>
+    <t>Detective</t>
+  </si>
+  <si>
+    <t>Liason, FireHeart, Default, Trance</t>
+  </si>
+  <si>
+    <t>Terry</t>
+  </si>
+  <si>
+    <t>McDonough</t>
+  </si>
+  <si>
+    <t>C:\Users\hp\Downloads\Movies\Damaged\DirPhoto</t>
+  </si>
+  <si>
+    <t>British</t>
+  </si>
+  <si>
+    <t>The Expanse, The Street, Cold Feet</t>
+  </si>
+  <si>
+    <t>Crime</t>
+  </si>
+  <si>
+    <t>Detective based in Chicago</t>
+  </si>
+  <si>
+    <t>S205</t>
+  </si>
+  <si>
+    <t>Unicorn</t>
+  </si>
+  <si>
+    <t>Bella</t>
+  </si>
+  <si>
+    <t>Laki</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>bellaki@gmail.com</t>
+  </si>
+  <si>
+    <t>+254 70011223</t>
+  </si>
+  <si>
+    <t>1080p</t>
+  </si>
+  <si>
+    <t>Res001</t>
+  </si>
+  <si>
+    <t>M5065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Views </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,9 +470,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF8E95A5"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -308,15 +514,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -629,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2482433D-E08F-4994-8235-043A5ABEDA3D}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,9 +858,10 @@
     <col min="3" max="3" width="15.109375" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -659,8 +877,11 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -679,8 +900,11 @@
       <c r="F2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -690,8 +914,11 @@
       <c r="E3">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>22</v>
       </c>
@@ -701,8 +928,11 @@
       <c r="E4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -712,8 +942,11 @@
       <c r="E5">
         <v>500</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>39</v>
       </c>
@@ -723,8 +956,11 @@
       <c r="E6">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>8</v>
       </c>
@@ -734,8 +970,11 @@
       <c r="E7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>9</v>
       </c>
@@ -745,8 +984,11 @@
       <c r="E8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>10</v>
       </c>
@@ -756,8 +998,11 @@
       <c r="E9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -770,8 +1015,11 @@
       <c r="F10" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>12</v>
       </c>
@@ -784,8 +1032,11 @@
       <c r="F11" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>25</v>
       </c>
@@ -795,19 +1046,25 @@
       <c r="E12">
         <v>300</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -817,8 +1074,11 @@
       <c r="E14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>42</v>
       </c>
@@ -828,8 +1088,11 @@
       <c r="E15">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -848,8 +1111,11 @@
       <c r="F17" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>17</v>
       </c>
@@ -857,18 +1123,24 @@
         <v>75</v>
       </c>
       <c r="E18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>18</v>
       </c>
       <c r="D19" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="4">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -881,16 +1153,22 @@
       <c r="F20" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="1">
+        <v>2345243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>20</v>
       </c>
       <c r="D21" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>21</v>
       </c>
@@ -898,7 +1176,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -917,8 +1195,11 @@
       <c r="F24" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>16</v>
       </c>
@@ -931,8 +1212,11 @@
       <c r="F25" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>19</v>
       </c>
@@ -945,32 +1229,44 @@
       <c r="F26" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="1">
+        <v>2345243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>18</v>
       </c>
       <c r="D27" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="4">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>20</v>
       </c>
       <c r="D28" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>24</v>
       </c>
       <c r="D29" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="4">
+        <v>45399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -989,8 +1285,11 @@
       <c r="F31" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>28</v>
       </c>
@@ -1000,8 +1299,11 @@
       <c r="E32">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>27</v>
       </c>
@@ -1011,16 +1313,22 @@
       <c r="E33">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>29</v>
       </c>
       <c r="D34" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="4">
+        <v>36758</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>30</v>
       </c>
@@ -1030,8 +1338,11 @@
       <c r="E35">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>31</v>
       </c>
@@ -1041,8 +1352,11 @@
       <c r="E36">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>32</v>
       </c>
@@ -1052,8 +1366,11 @@
       <c r="E37">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>5</v>
       </c>
@@ -1072,8 +1389,11 @@
       <c r="F39" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>34</v>
       </c>
@@ -1086,8 +1406,11 @@
       <c r="F40" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>35</v>
       </c>
@@ -1097,8 +1420,11 @@
       <c r="E41">
         <v>30</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>12</v>
       </c>
@@ -1111,8 +1437,11 @@
       <c r="F42" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>36</v>
       </c>
@@ -1122,8 +1451,11 @@
       <c r="E43">
         <v>800</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>6</v>
       </c>
@@ -1142,8 +1474,11 @@
       <c r="F45" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>28</v>
       </c>
@@ -1153,8 +1488,11 @@
       <c r="E46">
         <v>30</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>27</v>
       </c>
@@ -1164,16 +1502,22 @@
       <c r="E47">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>29</v>
       </c>
       <c r="D48" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" s="4">
+        <v>28926</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>38</v>
       </c>
@@ -1183,8 +1527,11 @@
       <c r="E49">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>30</v>
       </c>
@@ -1194,8 +1541,11 @@
       <c r="E50">
         <v>20</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>36</v>
       </c>
@@ -1205,8 +1555,11 @@
       <c r="E51">
         <v>800</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>7</v>
       </c>
@@ -1225,8 +1578,11 @@
       <c r="F53" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>41</v>
       </c>
@@ -1239,8 +1595,11 @@
       <c r="F54" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>8</v>
       </c>
@@ -1250,7 +1609,7 @@
       <c r="C56" t="s">
         <v>44</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" t="s">
         <v>75</v>
       </c>
       <c r="E56">
@@ -1259,8 +1618,11 @@
       <c r="F56" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" s="1">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>45</v>
       </c>
@@ -1273,8 +1635,11 @@
       <c r="F57" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>9</v>
       </c>
@@ -1293,8 +1658,11 @@
       <c r="F59" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>40</v>
       </c>
@@ -1307,8 +1675,11 @@
       <c r="F60" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>10</v>
       </c>
@@ -1327,8 +1698,11 @@
       <c r="F62" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>44</v>
       </c>
@@ -1341,8 +1715,11 @@
       <c r="F63" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>11</v>
       </c>
@@ -1361,8 +1738,11 @@
       <c r="F65" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>51</v>
       </c>
@@ -1372,8 +1752,11 @@
       <c r="E66">
         <v>200</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>12</v>
       </c>
@@ -1389,8 +1772,11 @@
       <c r="E68">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>53</v>
       </c>
@@ -1401,7 +1787,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>18</v>
       </c>
@@ -1409,7 +1795,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>20</v>
       </c>
@@ -1417,7 +1803,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>21</v>
       </c>
@@ -1425,7 +1811,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>13</v>
       </c>
@@ -1444,8 +1830,11 @@
       <c r="F74" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" s="1">
+        <v>2345243</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>56</v>
       </c>
@@ -1455,8 +1844,11 @@
       <c r="E75">
         <v>50</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>28</v>
       </c>
@@ -1466,8 +1858,11 @@
       <c r="E76">
         <v>30</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>27</v>
       </c>
@@ -1477,8 +1872,11 @@
       <c r="E77">
         <v>30</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>61</v>
       </c>
@@ -1489,7 +1887,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>57</v>
       </c>
@@ -1499,8 +1897,11 @@
       <c r="E79">
         <v>15</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>58</v>
       </c>
@@ -1510,8 +1911,11 @@
       <c r="E80">
         <v>30</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>59</v>
       </c>
@@ -1521,8 +1925,11 @@
       <c r="E81">
         <v>15</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>14</v>
       </c>
@@ -1541,8 +1948,11 @@
       <c r="F83" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" s="1">
+        <v>3339048</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>64</v>
       </c>
@@ -1556,7 +1966,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>15</v>
       </c>
@@ -1575,8 +1985,11 @@
       <c r="F87" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" s="1">
+        <v>2345243</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>63</v>
       </c>
@@ -1589,16 +2002,22 @@
       <c r="F88" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" s="1">
+        <v>3339048</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>65</v>
       </c>
       <c r="D89" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>16</v>
       </c>
@@ -1617,8 +2036,11 @@
       <c r="F91" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>68</v>
       </c>
@@ -1628,8 +2050,11 @@
       <c r="E92">
         <v>20</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>17</v>
       </c>
@@ -1648,8 +2073,11 @@
       <c r="F94" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>67</v>
       </c>
@@ -1662,8 +2090,11 @@
       <c r="F95" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>18</v>
       </c>
@@ -1682,8 +2113,11 @@
       <c r="F97" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>72</v>
       </c>
@@ -1693,8 +2127,11 @@
       <c r="E98">
         <v>50</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>19</v>
       </c>
@@ -1713,8 +2150,11 @@
       <c r="F100" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>71</v>
       </c>
@@ -1727,8 +2167,14 @@
       <c r="F101" t="s">
         <v>77</v>
       </c>
+      <c r="G101" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G80" r:id="rId1" xr:uid="{D2A94468-683E-466E-8C28-35736774781D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Movie project data dictionary.xlsx
+++ b/Movie project data dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\School\IBL (3.3)\SYS DEV\movie-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D63994-9590-4F78-8B90-2DCFE639F8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5615AE-909C-4449-BAA2-52777F97B516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{6BD3574D-50EC-42B3-BFCC-3F423B29D884}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{6BD3574D-50EC-42B3-BFCC-3F423B29D884}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="125">
   <si>
     <t>ENTITY</t>
   </si>
@@ -455,6 +455,9 @@
   </si>
   <si>
     <t xml:space="preserve">Views </t>
+  </si>
+  <si>
+    <t>datetime</t>
   </si>
 </sst>
 </file>
@@ -518,13 +521,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -848,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2482433D-E08F-4994-8235-043A5ABEDA3D}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104:E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1057,7 +1059,7 @@
       <c r="D13" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13">
         <v>30</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -1136,7 +1138,7 @@
       <c r="D19" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>45397</v>
       </c>
     </row>
@@ -1173,7 +1175,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1238,9 +1240,9 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="4">
+        <v>124</v>
+      </c>
+      <c r="G27" s="3">
         <v>45397</v>
       </c>
     </row>
@@ -1260,9 +1262,9 @@
         <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" s="4">
+        <v>124</v>
+      </c>
+      <c r="G29" s="3">
         <v>45399</v>
       </c>
     </row>
@@ -1324,7 +1326,7 @@
       <c r="D34" t="s">
         <v>78</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="3">
         <v>36758</v>
       </c>
     </row>
@@ -1352,7 +1354,7 @@
       <c r="E36">
         <v>100</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1513,7 +1515,7 @@
       <c r="D48" t="s">
         <v>80</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="3">
         <v>28926</v>
       </c>
     </row>
@@ -1527,7 +1529,7 @@
       <c r="E49">
         <v>100</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="4" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1772,6 +1774,9 @@
       <c r="E68">
         <v>10</v>
       </c>
+      <c r="F68" t="s">
+        <v>76</v>
+      </c>
       <c r="G68" t="s">
         <v>113</v>
       </c>
@@ -1792,7 +1797,7 @@
         <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -1808,7 +1813,7 @@
         <v>21</v>
       </c>
       <c r="D72" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -1911,7 +1916,7 @@
       <c r="E80">
         <v>30</v>
       </c>
-      <c r="G80" s="6" t="s">
+      <c r="G80" s="5" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1925,7 +1930,7 @@
       <c r="E81">
         <v>15</v>
       </c>
-      <c r="G81" s="7" t="s">
+      <c r="G81" s="6" t="s">
         <v>119</v>
       </c>
     </row>
